--- a/Vova/correlation_results.xlsx
+++ b/Vova/correlation_results.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Город</t>
+          <t>Регион</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>подходит?</t>
+          <t>Подходит</t>
         </is>
       </c>
     </row>
@@ -1067,15 +1067,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Чувашская республика Чувашия</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.7156423500548869</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.1097924331884838</v>
-      </c>
+          <t>Марий Эл Респ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
         <v>6</v>
       </c>
@@ -1086,11 +1082,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Марий Эл Респ</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+          <t>Чувашская республика Чувашия</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.7156423500548869</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1097924331884838</v>
+      </c>
       <c r="D35" t="n">
         <v>6</v>
       </c>

--- a/Vova/correlation_results.xlsx
+++ b/Vova/correlation_results.xlsx
@@ -691,17 +691,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Смоленская обл</t>
+          <t>Ярославская обл</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4496295424260979</v>
+        <v>0.4933902241530737</v>
       </c>
       <c r="C14" t="n">
-        <v>7.424392815777946e-05</v>
+        <v>0.3199686202926517</v>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -710,17 +710,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ярославская обл</t>
+          <t>Смоленская обл</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4933902241530737</v>
+        <v>0.4496295424260979</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3199686202926517</v>
+        <v>7.424392815777946e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1086,7 +1086,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Марий Эл Респ</t>
+          <t>Респ Адыгея</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Респ Адыгея</t>
+          <t>Марий Эл Респ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1134,8 +1134,12 @@
           <t>ЛЕНИНГРАДСКАЯ ОБЛ</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
@@ -1700,8 +1704,12 @@
           <t>Кемеровская область - Кузбасс обл</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
       <c r="D68" t="n">
         <v>2</v>
       </c>

--- a/Vova/correlation_results.xlsx
+++ b/Vova/correlation_results.xlsx
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Омская обл</t>
+          <t>Краснодарский край</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.301532633531991</v>
+        <v>-0.1520958514743073</v>
       </c>
       <c r="C2" t="n">
-        <v>5.952013745951218e-07</v>
+        <v>5.849052519080606e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>264</v>
+        <v>1069</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -482,17 +482,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Москва г</t>
+          <t>Омская обл</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6254165842208068</v>
+        <v>0.301532633531991</v>
       </c>
       <c r="C3" t="n">
-        <v>6.279855975968113e-21</v>
+        <v>5.952013745951218e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -501,17 +501,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Иркутская обл</t>
+          <t>Оренбургская обл</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5409210980570636</v>
+        <v>0.1497455739523403</v>
       </c>
       <c r="C4" t="n">
-        <v>4.057080856499887e-18</v>
+        <v>0.00531923385707926</v>
       </c>
       <c r="D4" t="n">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -520,17 +520,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Пермский край</t>
+          <t>Ульяновская обл</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3037487383322245</v>
+        <v>0.3848600321300477</v>
       </c>
       <c r="C5" t="n">
-        <v>1.547970180193922e-06</v>
+        <v>0.004058985099034805</v>
       </c>
       <c r="D5" t="n">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -539,17 +539,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Астраханская обл</t>
+          <t>Респ Мордовия</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3354801886679971</v>
+        <v>0.4157812136123098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001811021213437711</v>
+        <v>0.004056678402219923</v>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Респ Мордовия</t>
+          <t>Астраханская обл</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4157812136123098</v>
+        <v>0.3354801886679971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004056678402219923</v>
+        <v>0.001811021213437711</v>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -577,17 +577,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Тверская обл</t>
+          <t>Курская обл</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5562741587619476</v>
+        <v>-0.3297685981459854</v>
       </c>
       <c r="C8" t="n">
-        <v>6.889613233917293e-14</v>
+        <v>0.0008067614762112016</v>
       </c>
       <c r="D8" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -596,17 +596,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Воронежская обл</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3072132574449544</v>
+        <v>0.1605652146545736</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03568245597353226</v>
+        <v>0.0006559512473254452</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>447</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -615,17 +615,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Кемеровская область - Кузбасс</t>
+          <t>Чувашская Республика - Чувашия</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4842973803680486</v>
+        <v>0.3674579049509144</v>
       </c>
       <c r="C10" t="n">
-        <v>3.051036756610311e-09</v>
+        <v>0.0003669486103345446</v>
       </c>
       <c r="D10" t="n">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -634,17 +634,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ульяновская обл</t>
+          <t>Московская обл</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3848600321300477</v>
+        <v>-0.05691255037926991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004058985099034805</v>
+        <v>0.0002279408952742102</v>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>4190</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -653,17 +653,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Самарская обл</t>
+          <t>Смоленская обл</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3914175744172222</v>
+        <v>0.4496295424260979</v>
       </c>
       <c r="C12" t="n">
-        <v>1.109980574243798e-19</v>
+        <v>7.424392815777946e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>498</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -672,17 +672,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Калининградская обл</t>
+          <t>Томская обл</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3634883857762387</v>
+        <v>-0.4343172596215089</v>
       </c>
       <c r="C13" t="n">
-        <v>2.540487335036144e-07</v>
+        <v>5.09820919195714e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -691,17 +691,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Смоленская обл</t>
+          <t>Тульская обл</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4496295424260979</v>
+        <v>-0.7864766488727729</v>
       </c>
       <c r="C14" t="n">
-        <v>7.424392815777946e-05</v>
+        <v>3.917452372677549e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -710,17 +710,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ярославская обл</t>
+          <t>Респ Башкортостан</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4933902241530737</v>
+        <v>-0.1473758337654308</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3199686202926517</v>
+        <v>1.349197020905151e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>865</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -729,17 +729,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Башкортостан Респ</t>
+          <t>Пермский край</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.393992469084451</v>
+        <v>0.3037487383322245</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7421872028389813</v>
+        <v>1.547970180193922e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>241</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -748,17 +748,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Псковская обл</t>
+          <t>г Санкт-Петербург</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9411746709350071</v>
+        <v>0.1169327177820643</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2194469770708979</v>
+        <v>1.078004673013936e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1730</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -767,17 +767,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Чувашская Республика - Чувашия</t>
+          <t>Алтайский край</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3674579049509144</v>
+        <v>0.1265825599836266</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003669486103345446</v>
+        <v>0.007994951520508163</v>
       </c>
       <c r="D18" t="n">
-        <v>90</v>
+        <v>438</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -786,241 +786,241 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Курганская обл</t>
+          <t>Белгородская обл</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2625825500398782</v>
+        <v>0.2461709803272449</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03922367939068605</v>
+        <v>0.008580910352197144</v>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Респ Бурятия</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+          <t>Калининградская обл</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3634883857762387</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.540487335036144e-07</v>
+      </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Архангельская обл</t>
+          <t>Кемеровская область - Кузбасс</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1465442983652014</v>
+        <v>0.4842973803680486</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3256449702186783</v>
+        <v>3.051036756610311e-09</v>
       </c>
       <c r="D21" t="n">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Чеченская Респ</t>
+          <t>Новгородская обл</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2443981103380903</v>
+        <v>-0.5477902406174235</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03854788529449864</v>
+        <v>4.082071608323393e-10</v>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ивановская обл</t>
+          <t>Ставропольский край</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01169834862400278</v>
+        <v>-0.2450356832782349</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9195687185255393</v>
+        <v>1.15808188598536e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>892</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Владимирская обл</t>
+          <t>Тверская обл</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.06837722449412229</v>
+        <v>0.5562741587619476</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6036810657561453</v>
+        <v>6.889613233917293e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Московская обл</t>
+          <t>Ростовская обл</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.05691255037926991</v>
+        <v>-0.1800575229914029</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002279408952742102</v>
+        <v>3.038865748489537e-15</v>
       </c>
       <c r="D25" t="n">
-        <v>4190</v>
+        <v>1891</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Республика Татарстан</t>
+          <t>г Москва</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2758459117981582</v>
+        <v>0.1337660238974473</v>
       </c>
       <c r="C26" t="n">
-        <v>0.080862936623099</v>
+        <v>8.28017762792693e-17</v>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>3843</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Тыва Респ</t>
+          <t>Иркутская обл</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.3880449875207159</v>
+        <v>0.5409210980570636</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05012773678012952</v>
+        <v>4.057080856499887e-18</v>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Тульская обл</t>
+          <t>Самарская обл</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.7864766488727729</v>
+        <v>0.3914175744172222</v>
       </c>
       <c r="C28" t="n">
-        <v>3.917452372677549e-05</v>
+        <v>1.109980574243798e-19</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>498</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Чувашская республика - Чувашия</t>
+          <t>Москва г</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.06822189689802839</v>
+        <v>0.6254165842208068</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7879491890151618</v>
+        <v>6.279855975968113e-21</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Рязанская обл</t>
+          <t>Ханты-Мансийский Автономный округ - Югра</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01346863751359513</v>
+        <v>-0.6477778195669774</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9590828129712415</v>
+        <v>2.315658872081006e-21</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Респ Удмуртская</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.1634399509081996</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5605523322936936</v>
-      </c>
+          <t>Респ Тыва</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1029,17 +1029,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Мурманская обл</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.06401342051817564</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.8433245061413928</v>
-      </c>
+          <t>Респ Адыгея</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1048,17 +1044,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Приморский край</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.09229556224365501</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.8133066368611116</v>
-      </c>
+          <t>Респ Бурятия</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1067,13 +1059,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Марий Эл Респ</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+          <t>Кемеровская область - Кузбасс обл</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1082,17 +1078,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Чувашская республика Чувашия</t>
+          <t>Красноярский край</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.7156423500548869</v>
+        <v>0.1773316378873643</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097924331884838</v>
+        <v>0.03107122547843696</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1101,13 +1097,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Респ Адыгея</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+          <t>ЛЕНИНГРАДСКАЯ ОБЛ</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1116,13 +1116,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Респ Тыва</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+          <t>Ленинградская обл</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.02432028668093461</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4248309526137573</v>
+      </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>1079</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1131,13 +1135,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ЛЕНИНГРАДСКАЯ ОБЛ</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+          <t>Рязанская обл</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01346863751359513</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9590828129712415</v>
+      </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1146,17 +1154,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Томская обл</t>
+          <t>Калужская обл</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.4343172596215089</v>
+        <v>-0.006370807210868121</v>
       </c>
       <c r="C39" t="n">
-        <v>5.09820919195714e-05</v>
+        <v>0.9428765566723528</v>
       </c>
       <c r="D39" t="n">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1165,17 +1173,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Новгородская обл</t>
+          <t>Ивановская обл</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.5477902406174235</v>
+        <v>0.01169834862400278</v>
       </c>
       <c r="C40" t="n">
-        <v>4.082071608323393e-10</v>
+        <v>0.9195687185255393</v>
       </c>
       <c r="D40" t="n">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1184,17 +1192,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Тамбовская обл</t>
+          <t>Мурманская обл</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.1982455942814025</v>
+        <v>0.06401342051817564</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06728612076531955</v>
+        <v>0.8433245061413928</v>
       </c>
       <c r="D41" t="n">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1203,17 +1211,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Курская обл</t>
+          <t>Приморский край</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.3297685981459854</v>
+        <v>0.09229556224365501</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0008067614762112016</v>
+        <v>0.8133066368611116</v>
       </c>
       <c r="D42" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1222,17 +1230,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ростовская обл</t>
+          <t>Брянская обл</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.1800575229914029</v>
+        <v>0.02347135631074472</v>
       </c>
       <c r="C43" t="n">
-        <v>3.038865748489537e-15</v>
+        <v>0.7901591817602553</v>
       </c>
       <c r="D43" t="n">
-        <v>1891</v>
+        <v>131</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1241,17 +1249,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>г Санкт-Петербург</t>
+          <t>Чувашская республика - Чувашия</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1169327177820643</v>
+        <v>0.06822189689802839</v>
       </c>
       <c r="C44" t="n">
-        <v>1.078004673013936e-06</v>
+        <v>0.7879491890151618</v>
       </c>
       <c r="D44" t="n">
-        <v>1730</v>
+        <v>18</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1260,17 +1268,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ленинградская обл</t>
+          <t>Башкортостан Респ</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.02432028668093461</v>
+        <v>0.393992469084451</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4248309526137573</v>
+        <v>0.7421872028389813</v>
       </c>
       <c r="D45" t="n">
-        <v>1079</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1279,17 +1287,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Краснодарский край</t>
+          <t>Челябинская обл</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.1520958514743073</v>
+        <v>-0.01782287896409981</v>
       </c>
       <c r="C46" t="n">
-        <v>5.849052519080606e-07</v>
+        <v>0.6516644337591151</v>
       </c>
       <c r="D46" t="n">
-        <v>1069</v>
+        <v>644</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1298,17 +1306,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Саратовская обл</t>
+          <t>Владимирская обл</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.05589851085559935</v>
+        <v>-0.06837722449412229</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09140560982867066</v>
+        <v>0.6036810657561453</v>
       </c>
       <c r="D47" t="n">
-        <v>913</v>
+        <v>60</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1317,17 +1325,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ставропольский край</t>
+          <t>Волгоградская обл</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.2450356832782349</v>
+        <v>-0.02660163576306536</v>
       </c>
       <c r="C48" t="n">
-        <v>1.15808188598536e-13</v>
+        <v>0.6028150100254469</v>
       </c>
       <c r="D48" t="n">
-        <v>892</v>
+        <v>385</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1336,17 +1344,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Респ Башкортостан</t>
+          <t>Респ Удмуртская</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.1473758337654308</v>
+        <v>-0.1634399509081996</v>
       </c>
       <c r="C49" t="n">
-        <v>1.349197020905151e-05</v>
+        <v>0.5605523322936936</v>
       </c>
       <c r="D49" t="n">
-        <v>865</v>
+        <v>15</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1355,17 +1363,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Челябинская обл</t>
+          <t>Респ Хакасия</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.01782287896409981</v>
+        <v>0.06020267802500624</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6516644337591151</v>
+        <v>0.51543907242426</v>
       </c>
       <c r="D50" t="n">
-        <v>644</v>
+        <v>119</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1374,17 +1382,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Свердловская обл</t>
+          <t>Вологодская обл</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.07666645749422135</v>
+        <v>0.07309804632631156</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05843451764735463</v>
+        <v>0.4675599899497877</v>
       </c>
       <c r="D51" t="n">
-        <v>610</v>
+        <v>101</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1393,17 +1401,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Новосибирская обл</t>
+          <t>Респ Татарстан</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.07444285316959058</v>
+        <v>-0.0474023434557523</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08194630078067554</v>
+        <v>0.355510502521216</v>
       </c>
       <c r="D52" t="n">
-        <v>547</v>
+        <v>382</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -1412,17 +1420,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Воронежская обл</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1605652146545736</v>
+        <v>0.3072132574449544</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0006559512473254452</v>
+        <v>0.03568245597353226</v>
       </c>
       <c r="D53" t="n">
-        <v>447</v>
+        <v>47</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1431,17 +1439,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Алтайский край</t>
+          <t>Нижегородская обл</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1265825599836266</v>
+        <v>0.04686167030258276</v>
       </c>
       <c r="C54" t="n">
-        <v>0.007994951520508163</v>
+        <v>0.3403660622139214</v>
       </c>
       <c r="D54" t="n">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1450,17 +1458,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Нижегородская обл</t>
+          <t>Архангельская обл</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.04686167030258276</v>
+        <v>0.1465442983652014</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3403660622139214</v>
+        <v>0.3256449702186783</v>
       </c>
       <c r="D55" t="n">
-        <v>416</v>
+        <v>47</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1469,17 +1477,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Волгоградская обл</t>
+          <t>Ярославская обл</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.02660163576306536</v>
+        <v>0.4933902241530737</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6028150100254469</v>
+        <v>0.3199686202926517</v>
       </c>
       <c r="D56" t="n">
-        <v>385</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1488,17 +1496,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Респ Татарстан</t>
+          <t>Псковская обл</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.0474023434557523</v>
+        <v>0.9411746709350071</v>
       </c>
       <c r="C57" t="n">
-        <v>0.355510502521216</v>
+        <v>0.2194469770708979</v>
       </c>
       <c r="D57" t="n">
-        <v>382</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1507,17 +1515,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Оренбургская обл</t>
+          <t>Тюменская обл</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1497455739523403</v>
+        <v>-0.1200639154394506</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00531923385707926</v>
+        <v>0.1406531437862617</v>
       </c>
       <c r="D58" t="n">
-        <v>345</v>
+        <v>152</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -1526,17 +1534,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ханты-Мансийский Автономный округ - Югра</t>
+          <t>Чувашская республика Чувашия</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.6477778195669774</v>
+        <v>-0.7156423500548869</v>
       </c>
       <c r="C59" t="n">
-        <v>2.315658872081006e-21</v>
+        <v>0.1097924331884838</v>
       </c>
       <c r="D59" t="n">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -1545,17 +1553,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Тюменская обл</t>
+          <t>Саратовская обл</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.1200639154394506</v>
+        <v>0.05589851085559935</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1406531437862617</v>
+        <v>0.09140560982867066</v>
       </c>
       <c r="D60" t="n">
-        <v>152</v>
+        <v>913</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1564,17 +1572,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Красноярский край</t>
+          <t>Новосибирская обл</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1773316378873643</v>
+        <v>0.07444285316959058</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03107122547843696</v>
+        <v>0.08194630078067554</v>
       </c>
       <c r="D61" t="n">
-        <v>148</v>
+        <v>547</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -1583,17 +1591,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Брянская обл</t>
+          <t>Республика Татарстан</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02347135631074472</v>
+        <v>0.2758459117981582</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7901591817602553</v>
+        <v>0.080862936623099</v>
       </c>
       <c r="D62" t="n">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1602,17 +1610,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Калужская обл</t>
+          <t>Тамбовская обл</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.006370807210868121</v>
+        <v>-0.1982455942814025</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9428765566723528</v>
+        <v>0.06728612076531955</v>
       </c>
       <c r="D63" t="n">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -1621,17 +1629,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Респ Хакасия</t>
+          <t>Свердловская обл</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.06020267802500624</v>
+        <v>0.07666645749422135</v>
       </c>
       <c r="C64" t="n">
-        <v>0.51543907242426</v>
+        <v>0.05843451764735463</v>
       </c>
       <c r="D64" t="n">
-        <v>119</v>
+        <v>610</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -1640,17 +1648,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Белгородская обл</t>
+          <t>Тыва Респ</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2461709803272449</v>
+        <v>-0.3880449875207159</v>
       </c>
       <c r="C65" t="n">
-        <v>0.008580910352197144</v>
+        <v>0.05012773678012952</v>
       </c>
       <c r="D65" t="n">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -1659,17 +1667,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>г Москва</t>
+          <t>Курганская обл</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1337660238974473</v>
+        <v>-0.2625825500398782</v>
       </c>
       <c r="C66" t="n">
-        <v>8.28017762792693e-17</v>
+        <v>0.03922367939068605</v>
       </c>
       <c r="D66" t="n">
-        <v>3843</v>
+        <v>62</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -1678,17 +1686,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Вологодская обл</t>
+          <t>Чеченская Респ</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.07309804632631156</v>
+        <v>0.2443981103380903</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4675599899497877</v>
+        <v>0.03854788529449864</v>
       </c>
       <c r="D67" t="n">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -1697,13 +1705,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Кемеровская область - Кузбасс обл</t>
+          <t>Марий Эл Респ</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
